--- a/enigma_algorithm.xlsx
+++ b/enigma_algorithm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dunlapww/turing/mod_1/projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dunlapww/turing/mod_1/projects/final_individual/enigma/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884029C5-653B-A544-9705-D8ACEACCB7F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE97E13-F8D1-1749-8AE5-EE589FF0EB9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35880" yWindow="2940" windowWidth="28040" windowHeight="17040" xr2:uid="{1472DCA2-B658-274C-BA6B-193296C9D662}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
   <si>
     <t>date</t>
   </si>
@@ -199,6 +199,39 @@
   </si>
   <si>
     <t>new letter pos</t>
+  </si>
+  <si>
+    <t>final_shifts</t>
+  </si>
+  <si>
+    <t>key letter</t>
+  </si>
+  <si>
+    <t>decode_shift</t>
+  </si>
+  <si>
+    <t>ne letter pos (mod 27)</t>
+  </si>
+  <si>
+    <t>rotate end</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>-key</t>
+  </si>
+  <si>
+    <t>-offset</t>
+  </si>
+  <si>
+    <t>-correct letter pos</t>
+  </si>
+  <si>
+    <t>multiple of 27</t>
   </si>
 </sst>
 </file>
@@ -222,12 +255,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -247,7 +286,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A197666-CD44-1146-B1F3-7135C7036ABB}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -583,7 +622,7 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <f ca="1">RANDBETWEEN(10000,99999)</f>
-        <v>66783</v>
+        <v>43434</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -865,11 +904,11 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <f t="shared" ref="C18:C28" si="4">VLOOKUP(B18,$K$10:$L$36,2,FALSE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <f>E10</f>
@@ -877,11 +916,11 @@
       </c>
       <c r="E18">
         <f>MOD(SUM(C18:D18),27)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="str">
         <f>VLOOKUP(E18,$J$10:$K$36,2,FALSE)</f>
-        <v>j</v>
+        <v>k</v>
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
@@ -900,11 +939,11 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <f t="shared" ref="D19:D21" si="5">E11</f>
@@ -912,11 +951,11 @@
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E28" si="6">MOD(SUM(C19:D19),27)</f>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" ref="F19:F28" si="7">VLOOKUP(E19,$J$10:$K$36,2,FALSE)</f>
-        <v>o</v>
+        <v>e</v>
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
@@ -935,11 +974,11 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C20">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D20">
         <f t="shared" si="5"/>
@@ -947,11 +986,11 @@
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="7"/>
-        <v>l</v>
+        <v>q</v>
       </c>
       <c r="J20">
         <f t="shared" si="3"/>
@@ -1005,11 +1044,11 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C22">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D22">
         <f>E10</f>
@@ -1017,11 +1056,11 @@
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="7"/>
-        <v>v</v>
+        <v>a</v>
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
@@ -1075,11 +1114,11 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D24">
         <f t="shared" si="8"/>
@@ -1087,11 +1126,11 @@
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="7"/>
-        <v>e</v>
+        <v>m</v>
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
@@ -1110,11 +1149,11 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C25">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D25">
         <f t="shared" si="8"/>
@@ -1122,11 +1161,11 @@
       </c>
       <c r="E25">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="7"/>
-        <v>y</v>
+        <v>t</v>
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
@@ -1145,11 +1184,11 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <f>E10</f>
@@ -1157,11 +1196,11 @@
       </c>
       <c r="E26">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="7"/>
-        <v>r</v>
+        <v>h</v>
       </c>
       <c r="J26">
         <f t="shared" si="3"/>
@@ -1215,11 +1254,11 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <f t="shared" si="9"/>
@@ -1227,11 +1266,11 @@
       </c>
       <c r="E28">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="7"/>
-        <v>x</v>
+        <v>w</v>
       </c>
       <c r="J28">
         <f t="shared" si="3"/>
@@ -1445,6 +1484,11 @@
         <v>-20</v>
       </c>
     </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>49</v>
@@ -1453,12 +1497,30 @@
         <v>44</v>
       </c>
       <c r="D39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
         <v>5</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" t="s">
         <v>54</v>
       </c>
-      <c r="F39" t="s">
+      <c r="J39" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" t="s">
+        <v>54</v>
+      </c>
+      <c r="L39" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1468,23 +1530,42 @@
       </c>
       <c r="B40" t="str">
         <f>F18</f>
-        <v>j</v>
+        <v>k</v>
       </c>
       <c r="C40">
         <f>VLOOKUP(B40,$K$10:$L$36,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
         <v>9</v>
       </c>
-      <c r="D40">
-        <f>H34</f>
+      <c r="E40" t="str">
+        <f>E34</f>
+        <v>02</v>
+      </c>
+      <c r="F40" t="str">
+        <f>F34</f>
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <f>E40+F40</f>
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <f>-1*G40</f>
         <v>-3</v>
       </c>
-      <c r="E40">
-        <f>MOD(SUM(C40:D40),27)</f>
-        <v>6</v>
-      </c>
-      <c r="F40" t="str">
-        <f>VLOOKUP(E40,$J$10:$K$36,2,FALSE)</f>
-        <v>g</v>
+      <c r="I40">
+        <f>H40+C40</f>
+        <v>7</v>
+      </c>
+      <c r="J40">
+        <f>MOD(I40,27)</f>
+        <v>7</v>
+      </c>
+      <c r="L40" t="str">
+        <f>VLOOKUP(J40,$J$10:$K$36,2,FALSE)</f>
+        <v>h</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1493,23 +1574,42 @@
       </c>
       <c r="B41" t="str">
         <f t="shared" ref="B41:B50" si="13">F19</f>
-        <v>o</v>
+        <v>e</v>
       </c>
       <c r="C41">
         <f t="shared" ref="C41:C50" si="14">VLOOKUP(B41,$K$10:$L$36,2,FALSE)</f>
-        <v>14</v>
-      </c>
-      <c r="D41">
-        <f t="shared" ref="D41:D43" si="15">H35</f>
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="str">
+        <f>E35</f>
+        <v>27</v>
+      </c>
+      <c r="F41" t="str">
+        <f>F35</f>
         <v>0</v>
       </c>
-      <c r="E41">
-        <f t="shared" ref="E41:E50" si="16">MOD(SUM(C41:D41),27)</f>
-        <v>14</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" ref="F41:F50" si="17">VLOOKUP(E41,$J$10:$K$36,2,FALSE)</f>
-        <v>o</v>
+      <c r="G41">
+        <f t="shared" ref="G41:G50" si="15">E41+F41</f>
+        <v>27</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ref="H41:H50" si="16">-1*G41</f>
+        <v>-27</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ref="I41:I50" si="17">H41+C41</f>
+        <v>-23</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ref="J41:J50" si="18">MOD(I41,27)</f>
+        <v>4</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" ref="L41:L50" si="19">VLOOKUP(J41,$J$10:$K$36,2,FALSE)</f>
+        <v>e</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -1518,23 +1618,42 @@
       </c>
       <c r="B42" t="str">
         <f t="shared" si="13"/>
-        <v>l</v>
+        <v>q</v>
       </c>
       <c r="C42">
         <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
         <v>11</v>
       </c>
-      <c r="D42">
+      <c r="E42" t="str">
+        <f>E36</f>
+        <v>71</v>
+      </c>
+      <c r="F42" t="str">
+        <f>F36</f>
+        <v>2</v>
+      </c>
+      <c r="G42">
         <f t="shared" si="15"/>
-        <v>-19</v>
-      </c>
-      <c r="E42">
+        <v>73</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="16"/>
-        <v>19</v>
-      </c>
-      <c r="F42" t="str">
+        <v>-73</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="17"/>
-        <v>t</v>
+        <v>-57</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="18"/>
+        <v>24</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="19"/>
+        <v>y</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -1549,16 +1668,35 @@
         <f t="shared" si="14"/>
         <v>19</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="str">
+        <f>E37</f>
+        <v>15</v>
+      </c>
+      <c r="F43" t="str">
+        <f>F37</f>
+        <v>5</v>
+      </c>
+      <c r="G43">
         <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="16"/>
         <v>-20</v>
       </c>
-      <c r="E43">
-        <f t="shared" si="16"/>
+      <c r="I43">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
-      <c r="F43" t="str">
-        <f t="shared" si="17"/>
+      <c r="L43" t="str">
+        <f t="shared" si="19"/>
         <v>/</v>
       </c>
     </row>
@@ -1568,23 +1706,42 @@
       </c>
       <c r="B44" t="str">
         <f t="shared" si="13"/>
-        <v>v</v>
+        <v>a</v>
       </c>
       <c r="C44">
         <f t="shared" si="14"/>
-        <v>21</v>
-      </c>
-      <c r="D44" s="4">
-        <f>H34</f>
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="str">
+        <f>E34</f>
+        <v>02</v>
+      </c>
+      <c r="F44" t="str">
+        <f>F34</f>
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="16"/>
         <v>-3</v>
       </c>
-      <c r="E44">
-        <f t="shared" si="16"/>
-        <v>18</v>
-      </c>
-      <c r="F44" t="str">
+      <c r="I44">
         <f t="shared" si="17"/>
-        <v>s</v>
+        <v>-3</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="18"/>
+        <v>24</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="19"/>
+        <v>y</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -1599,16 +1756,35 @@
         <f t="shared" si="14"/>
         <v>14</v>
       </c>
-      <c r="D45" s="4">
-        <f t="shared" ref="D45:D47" si="18">H35</f>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="str">
+        <f>E35</f>
+        <v>27</v>
+      </c>
+      <c r="F45" t="str">
+        <f>F35</f>
         <v>0</v>
       </c>
-      <c r="E45">
+      <c r="G45">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+      <c r="H45">
         <f t="shared" si="16"/>
+        <v>-27</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="17"/>
+        <v>-13</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
-      <c r="F45" t="str">
-        <f t="shared" si="17"/>
+      <c r="L45" t="str">
+        <f t="shared" si="19"/>
         <v>o</v>
       </c>
     </row>
@@ -1618,23 +1794,42 @@
       </c>
       <c r="B46" t="str">
         <f t="shared" si="13"/>
-        <v>e</v>
+        <v>m</v>
       </c>
       <c r="C46">
         <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="D46" s="4">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="str">
+        <f>E36</f>
+        <v>71</v>
+      </c>
+      <c r="F46" t="str">
+        <f>F36</f>
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="15"/>
+        <v>73</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="16"/>
+        <v>-73</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="17"/>
+        <v>-61</v>
+      </c>
+      <c r="J46">
         <f t="shared" si="18"/>
-        <v>-19</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" si="17"/>
-        <v>m</v>
+        <v>20</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="19"/>
+        <v>u</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -1643,23 +1838,42 @@
       </c>
       <c r="B47" t="str">
         <f t="shared" si="13"/>
-        <v>y</v>
+        <v>t</v>
       </c>
       <c r="C47">
         <f t="shared" si="14"/>
-        <v>24</v>
-      </c>
-      <c r="D47" s="4">
+        <v>19</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="str">
+        <f>E37</f>
+        <v>15</v>
+      </c>
+      <c r="F47" t="str">
+        <f>F37</f>
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="16"/>
+        <v>-20</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="J47">
         <f t="shared" si="18"/>
-        <v>-20</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="F47" t="str">
-        <f t="shared" si="17"/>
-        <v>e</v>
+        <v>26</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="19"/>
+        <v>/</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -1668,26 +1882,45 @@
       </c>
       <c r="B48" t="str">
         <f t="shared" si="13"/>
-        <v>r</v>
+        <v>h</v>
       </c>
       <c r="C48">
         <f t="shared" si="14"/>
-        <v>17</v>
-      </c>
-      <c r="D48" s="4">
-        <f>H34</f>
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="4" t="str">
+        <f>E34</f>
+        <v>02</v>
+      </c>
+      <c r="F48" t="str">
+        <f>F34</f>
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="16"/>
         <v>-3</v>
       </c>
-      <c r="E48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="F48" t="str">
+      <c r="I48">
         <f t="shared" si="17"/>
-        <v>o</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="19"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>10</v>
       </c>
@@ -1699,42 +1932,211 @@
         <f t="shared" si="14"/>
         <v>13</v>
       </c>
-      <c r="D49" s="4">
-        <f t="shared" ref="D49:D50" si="19">H35</f>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="str">
+        <f>E35</f>
+        <v>27</v>
+      </c>
+      <c r="F49" t="str">
+        <f>F35</f>
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="G49">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+      <c r="H49">
         <f t="shared" si="16"/>
+        <v>-27</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="17"/>
+        <v>-14</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="18"/>
         <v>13</v>
       </c>
-      <c r="F49" t="str">
-        <f t="shared" si="17"/>
+      <c r="L49" t="str">
+        <f t="shared" si="19"/>
         <v>n</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>11</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="13"/>
-        <v>x</v>
+        <v>w</v>
       </c>
       <c r="C50">
         <f t="shared" si="14"/>
-        <v>23</v>
-      </c>
-      <c r="D50" s="4">
+        <v>22</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="str">
+        <f>E36</f>
+        <v>71</v>
+      </c>
+      <c r="F50" t="str">
+        <f>F36</f>
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="15"/>
+        <v>73</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="16"/>
+        <v>-73</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="17"/>
+        <v>-51</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="L50" t="str">
         <f t="shared" si="19"/>
-        <v>-19</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="16"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53">
+        <v>-1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>61</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="L53">
         <v>4</v>
       </c>
-      <c r="F50" t="str">
-        <f t="shared" si="17"/>
-        <v>e</v>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>60</v>
+      </c>
+      <c r="F54">
+        <v>-1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>61</v>
+      </c>
+      <c r="I54">
+        <f>J54*27</f>
+        <v>27</v>
+      </c>
+      <c r="J54">
+        <f>J53+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55">
+        <v>-1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>61</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ref="I55:I59" si="20">J55*27</f>
+        <v>54</v>
+      </c>
+      <c r="J55">
+        <f t="shared" ref="J55:J57" si="21">J54+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <v>7</v>
+      </c>
+      <c r="E56" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56">
+        <v>-1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>61</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="20"/>
+        <v>81</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>60</v>
+      </c>
+      <c r="F57">
+        <v>-1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>61</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="20"/>
+        <v>108</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J60" t="s">
+        <v>61</v>
+      </c>
+      <c r="K60" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/enigma_algorithm.xlsx
+++ b/enigma_algorithm.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dunlapww/turing/mod_1/projects/final_individual/enigma/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE97E13-F8D1-1749-8AE5-EE589FF0EB9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D556D9E-2CA9-304B-BEB5-7C05C608D31F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35880" yWindow="2940" windowWidth="28040" windowHeight="17040" xr2:uid="{1472DCA2-B658-274C-BA6B-193296C9D662}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{1472DCA2-B658-274C-BA6B-193296C9D662}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="64">
   <si>
     <t>date</t>
   </si>
@@ -216,29 +217,34 @@
     <t>rotate end</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>-key</t>
-  </si>
-  <si>
-    <t>-offset</t>
-  </si>
-  <si>
-    <t>-correct letter pos</t>
-  </si>
-  <si>
-    <t>multiple of 27</t>
+    <t>encoded letter position</t>
+  </si>
+  <si>
+    <t>decoded_letter_position</t>
+  </si>
+  <si>
+    <t>key options</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Andale Mono"/>
+        <family val="2"/>
+      </rPr>
+      <t>"xcjjdyumgjb"</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -254,8 +260,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF00FFF0"/>
+      <name val="Andale Mono"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FFB42419"/>
+      <name val="Andale Mono"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,12 +282,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -277,16 +301,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,17 +647,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A197666-CD44-1146-B1F3-7135C7036ABB}">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" customWidth="1"/>
+    <col min="10" max="10" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -622,7 +672,7 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <f ca="1">RANDBETWEEN(10000,99999)</f>
-        <v>43434</v>
+        <v>17932</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -664,28 +714,25 @@
         <v>34915</v>
       </c>
       <c r="D7">
-        <f>DAY(C7)</f>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <f>MONTH(C7)</f>
-        <v>8</v>
-      </c>
-      <c r="F7" t="str">
-        <f>RIGHT(YEAR(C7),2)</f>
-        <v>95</v>
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>36</v>
       </c>
       <c r="G7">
         <f>(D7*10000)+(E7*100)+F7</f>
-        <v>40895</v>
+        <v>300536</v>
       </c>
       <c r="H7">
         <f>G7*G7</f>
-        <v>1672401025</v>
+        <v>90321887296</v>
       </c>
       <c r="I7" t="str">
         <f>RIGHT(H7,4)</f>
-        <v>1025</v>
+        <v>7296</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -715,15 +762,15 @@
       </c>
       <c r="C10" t="str">
         <f>LEFT(I7,1)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <f>B10+C10</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <f>MOD(D10,27)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,15 +793,15 @@
       </c>
       <c r="C11" t="str">
         <f>MID(I7,2,1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <f t="shared" ref="D11:D13" si="0">B11+C11</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <f t="shared" ref="E11:E13" si="1">MOD(D11,27)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11">
         <f>J10+1</f>
@@ -778,15 +825,15 @@
       </c>
       <c r="C12" t="str">
         <f>MID(I7,3,1)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J12">
         <f t="shared" ref="J12:J36" si="3">J11+1</f>
@@ -810,15 +857,15 @@
       </c>
       <c r="C13" t="str">
         <f>MID(I7,4,1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
@@ -912,15 +959,15 @@
       </c>
       <c r="D18">
         <f>E10</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <f>MOD(SUM(C18:D18),27)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F18" t="str">
         <f>VLOOKUP(E18,$J$10:$K$36,2,FALSE)</f>
-        <v>k</v>
+        <v>q</v>
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
@@ -947,15 +994,15 @@
       </c>
       <c r="D19">
         <f t="shared" ref="D19:D21" si="5">E11</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E28" si="6">MOD(SUM(C19:D19),27)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" ref="F19:F28" si="7">VLOOKUP(E19,$J$10:$K$36,2,FALSE)</f>
-        <v>e</v>
+        <v>g</v>
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
@@ -982,15 +1029,15 @@
       </c>
       <c r="D20">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="7"/>
-        <v>q</v>
+        <v>x</v>
       </c>
       <c r="J20">
         <f t="shared" si="3"/>
@@ -1017,15 +1064,15 @@
       </c>
       <c r="D21">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="7"/>
-        <v>t</v>
+        <v>u</v>
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
@@ -1052,15 +1099,15 @@
       </c>
       <c r="D22">
         <f>E10</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="7"/>
-        <v>a</v>
+        <v>g</v>
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
@@ -1087,15 +1134,15 @@
       </c>
       <c r="D23">
         <f t="shared" ref="D23:D25" si="8">E11</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="7"/>
-        <v>o</v>
+        <v>q</v>
       </c>
       <c r="J23">
         <f t="shared" si="3"/>
@@ -1122,15 +1169,15 @@
       </c>
       <c r="D24">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="7"/>
-        <v>m</v>
+        <v>t</v>
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
@@ -1157,15 +1204,15 @@
       </c>
       <c r="D25">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="7"/>
-        <v>t</v>
+        <v>u</v>
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
@@ -1192,15 +1239,15 @@
       </c>
       <c r="D26">
         <f>E10</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="7"/>
-        <v>h</v>
+        <v>n</v>
       </c>
       <c r="J26">
         <f t="shared" si="3"/>
@@ -1227,15 +1274,15 @@
       </c>
       <c r="D27">
         <f t="shared" ref="D27:D28" si="9">E11</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="7"/>
-        <v>n</v>
+        <v>p</v>
       </c>
       <c r="J27">
         <f t="shared" si="3"/>
@@ -1262,15 +1309,15 @@
       </c>
       <c r="D28">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E28">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="7"/>
-        <v>w</v>
+        <v>c</v>
       </c>
       <c r="J28">
         <f t="shared" si="3"/>
@@ -1374,15 +1421,15 @@
       </c>
       <c r="F34" t="str">
         <f>C10</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G34">
         <f>E34+F34</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H34">
         <f>-MOD(G34,27)</f>
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="J34">
         <f t="shared" si="3"/>
@@ -1409,15 +1456,15 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G35">
         <f t="shared" ref="G35:G37" si="11">E35+F35</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H35">
         <f t="shared" ref="H35:H37" si="12">-MOD(G35,27)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J35">
         <f t="shared" si="3"/>
@@ -1441,15 +1488,15 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G36">
         <f t="shared" si="11"/>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H36">
         <f t="shared" si="12"/>
-        <v>-19</v>
+        <v>-26</v>
       </c>
       <c r="J36">
         <f t="shared" si="3"/>
@@ -1473,15 +1520,15 @@
       </c>
       <c r="F37" t="str">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G37">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H37">
         <f t="shared" si="12"/>
-        <v>-20</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1530,30 +1577,30 @@
       </c>
       <c r="B40" t="str">
         <f>F18</f>
-        <v>k</v>
+        <v>q</v>
       </c>
       <c r="C40">
         <f>VLOOKUP(B40,$K$10:$L$36,2,FALSE)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
       <c r="E40" t="str">
-        <f>E34</f>
+        <f t="shared" ref="E40:F43" si="13">E34</f>
         <v>02</v>
       </c>
       <c r="F40" t="str">
-        <f>F34</f>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>7</v>
       </c>
       <c r="G40">
         <f>E40+F40</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H40">
         <f>-1*G40</f>
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="I40">
         <f>H40+C40</f>
@@ -1573,35 +1620,1612 @@
         <v>2</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" ref="B41:B50" si="13">F19</f>
+        <f t="shared" ref="B41:B50" si="14">F19</f>
+        <v>g</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:C50" si="15">VLOOKUP(B41,$K$10:$L$36,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="13"/>
+        <v>27</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ref="G41:G50" si="16">E41+F41</f>
+        <v>29</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ref="H41:H50" si="17">-1*G41</f>
+        <v>-29</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ref="I41:I50" si="18">H41+C41</f>
+        <v>-23</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ref="J41:J50" si="19">MOD(I41,27)</f>
+        <v>4</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" ref="L41:L50" si="20">VLOOKUP(J41,$J$10:$K$36,2,FALSE)</f>
         <v>e</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="14"/>
+        <v>x</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="15"/>
+        <v>23</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="13"/>
+        <v>71</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="16"/>
+        <v>80</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="17"/>
+        <v>-80</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="18"/>
+        <v>-57</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="19"/>
+        <v>24</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="20"/>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="14"/>
+        <v>u</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="17"/>
+        <v>-21</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="19"/>
+        <v>26</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="20"/>
+        <v>/</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="14"/>
+        <v>g</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" ref="E44:F47" si="21">E34</f>
+        <v>02</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="17"/>
+        <v>-9</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="18"/>
+        <v>-3</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="19"/>
+        <v>24</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="20"/>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="14"/>
+        <v>q</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="16"/>
+        <v>29</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="17"/>
+        <v>-29</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="18"/>
+        <v>-13</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="20"/>
+        <v>o</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>7</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="14"/>
+        <v>t</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="16"/>
+        <v>80</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="17"/>
+        <v>-80</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="18"/>
+        <v>-61</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="20"/>
+        <v>u</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="14"/>
+        <v>u</v>
+      </c>
+      <c r="C47" s="4">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="F47" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="G47" s="4">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="H47" s="4">
+        <f t="shared" si="17"/>
+        <v>-21</v>
+      </c>
+      <c r="I47" s="4">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="J47" s="4">
+        <f t="shared" si="19"/>
+        <v>26</v>
+      </c>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>/</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>9</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="14"/>
+        <v>n</v>
+      </c>
+      <c r="C48" s="4">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="4" t="str">
+        <f t="shared" ref="E48:F50" si="22">E34</f>
+        <v>02</v>
+      </c>
+      <c r="F48" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+      <c r="G48" s="4">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="H48" s="4">
+        <f t="shared" si="17"/>
+        <v>-9</v>
+      </c>
+      <c r="I48" s="4">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="J48" s="4">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>10</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="14"/>
+        <v>p</v>
+      </c>
+      <c r="C49" s="4">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>27</v>
+      </c>
+      <c r="F49" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="G49" s="4">
+        <f t="shared" si="16"/>
+        <v>29</v>
+      </c>
+      <c r="H49" s="4">
+        <f t="shared" si="17"/>
+        <v>-29</v>
+      </c>
+      <c r="I49" s="4">
+        <f t="shared" si="18"/>
+        <v>-14</v>
+      </c>
+      <c r="J49" s="4">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>n</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>11</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="14"/>
+        <v>c</v>
+      </c>
+      <c r="C50" s="4">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>71</v>
+      </c>
+      <c r="F50" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>9</v>
+      </c>
+      <c r="G50" s="4">
+        <f t="shared" si="16"/>
+        <v>80</v>
+      </c>
+      <c r="H50" s="4">
+        <f t="shared" si="17"/>
+        <v>-80</v>
+      </c>
+      <c r="I50" s="4">
+        <f t="shared" si="18"/>
+        <v>-78</v>
+      </c>
+      <c r="J50" s="4">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E55" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0</v>
+      </c>
+      <c r="I55" s="5">
+        <v>1</v>
+      </c>
+      <c r="J55" s="5">
+        <v>2</v>
+      </c>
+      <c r="K55" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E56" s="8">
+        <f>C47</f>
+        <v>20</v>
+      </c>
+      <c r="F56" s="8">
+        <f>F47*1</f>
+        <v>6</v>
+      </c>
+      <c r="G56" s="8">
+        <f>J47</f>
+        <v>26</v>
+      </c>
+      <c r="H56" s="8">
+        <f>($E56-$F56-$G56) + 27*H$55</f>
+        <v>-12</v>
+      </c>
+      <c r="I56" s="8">
+        <f>($E56-$F56-$G56) + 27*I$55</f>
+        <v>15</v>
+      </c>
+      <c r="J56" s="8">
+        <f>($E56-$F56-$G56) + 27*J$55</f>
+        <v>42</v>
+      </c>
+      <c r="K56" s="8">
+        <f>($E56-$F56-$G56) + 27*K$55</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E57" s="8">
+        <f t="shared" ref="E57:E59" si="23">C48</f>
+        <v>13</v>
+      </c>
+      <c r="F57" s="8">
+        <f>F48*1</f>
+        <v>7</v>
+      </c>
+      <c r="G57" s="8">
+        <f>J48</f>
+        <v>4</v>
+      </c>
+      <c r="H57" s="8">
+        <f>($E57-$F57-$G57) + 27*H$55</f>
+        <v>2</v>
+      </c>
+      <c r="I57" s="8">
+        <f>($E57-$F57-$G57) + 27*I$55</f>
+        <v>29</v>
+      </c>
+      <c r="J57" s="8">
+        <f>($E57-$F57-$G57) + 27*J$55</f>
+        <v>56</v>
+      </c>
+      <c r="K57" s="8">
+        <f>($E57-$F57-$G57) + 27*K$55</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E58" s="8">
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="F58" s="8">
+        <f>F49*1</f>
+        <v>2</v>
+      </c>
+      <c r="G58" s="8">
+        <f>J49</f>
+        <v>13</v>
+      </c>
+      <c r="H58" s="8">
+        <f>($E58-$F58-$G58) + 27*H$55</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="8">
+        <f>($E58-$F58-$G58) + 27*I$55</f>
+        <v>27</v>
+      </c>
+      <c r="J58" s="8">
+        <f>($E58-$F58-$G58) + 27*J$55</f>
+        <v>54</v>
+      </c>
+      <c r="K58" s="8">
+        <f>($E58-$F58-$G58) + 27*K$55</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E59" s="8">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="F59" s="8">
+        <f>F50*1</f>
+        <v>9</v>
+      </c>
+      <c r="G59" s="8">
+        <f>J50</f>
+        <v>3</v>
+      </c>
+      <c r="H59" s="8">
+        <f>($E59-$F59-$G59) + 27*H$55</f>
+        <v>-10</v>
+      </c>
+      <c r="I59" s="8">
+        <f>($E59-$F59-$G59) + 27*I$55</f>
+        <v>17</v>
+      </c>
+      <c r="J59" s="8">
+        <f>($E59-$F59-$G59) + 27*J$55</f>
+        <v>44</v>
+      </c>
+      <c r="K59" s="8">
+        <f>($E59-$F59-$G59) + 27*K$55</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B62" t="str">
+        <f>B40&amp;B41&amp;B42&amp;B43&amp;B44&amp;B45&amp;B46&amp;B47&amp;B48&amp;B49&amp;B50</f>
+        <v>qgxugqtunpc</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H54:K54"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C055F4-CE9F-684A-9931-4A6B0A3EA77B}">
+  <dimension ref="A1:L65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" customWidth="1"/>
+    <col min="10" max="10" width="29.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f ca="1">RANDBETWEEN(10000,99999)</f>
+        <v>25598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>34915</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <v>250920</v>
+      </c>
+      <c r="H7">
+        <f>G7*G7</f>
+        <v>62960846400</v>
+      </c>
+      <c r="I7" t="str">
+        <f>RIGHT(H7,4)</f>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <f>LEFT(A7,2)</f>
+        <v>02</v>
+      </c>
+      <c r="C10" t="str">
+        <f>LEFT(I7,1)</f>
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <f>B10+C10</f>
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <f>MOD(D10,27)</f>
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10">
+        <f>J10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f>MID(A7,2,2)</f>
+        <v>27</v>
+      </c>
+      <c r="C11" t="str">
+        <f>MID(I7,2,1)</f>
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D13" si="0">B11+C11</f>
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:E13" si="1">MOD(D11,27)</f>
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <f>J10+1</f>
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11:L36" si="2">J11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f>MID(A7,3,2)</f>
+        <v>71</v>
+      </c>
+      <c r="C12" t="str">
+        <f>MID(I7,3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J36" si="3">J11+1</f>
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f>MID(A7,4,2)</f>
+        <v>15</v>
+      </c>
+      <c r="C13" t="str">
+        <f>MID(I7,4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:C28" si="4">VLOOKUP(B18,$K$10:$L$36,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <f>E10</f>
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <f>MOD(SUM(C18:D18),27)</f>
+        <v>15</v>
+      </c>
+      <c r="F18" t="str">
+        <f>VLOOKUP(E18,$J$10:$K$36,2,FALSE)</f>
+        <v>p</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:D21" si="5">E11</f>
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E28" si="6">MOD(SUM(C19:D19),27)</f>
+        <v>8</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" ref="F19:F28" si="7">VLOOKUP(E19,$J$10:$K$36,2,FALSE)</f>
+        <v>i</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="7"/>
+        <v>o</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="7"/>
+        <v>o</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <f>E10</f>
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="7"/>
+        <v>f</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="K22" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:D25" si="8">E11</f>
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="7"/>
+        <v>s</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="K23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="7"/>
+        <v>k</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="K24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="7"/>
+        <v>o</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="K25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <f>E10</f>
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="7"/>
+        <v>m</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="K26" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:D28" si="9">E11</f>
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="7"/>
+        <v>r</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="K27" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="7"/>
+        <v>u</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="K28" t="s">
+        <v>37</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="K29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="K30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="K31" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="K32" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="K33" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="str">
+        <f>B10</f>
+        <v>02</v>
+      </c>
+      <c r="F34" t="str">
+        <f>C10</f>
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <f>E34+F34</f>
+        <v>8</v>
+      </c>
+      <c r="H34">
+        <f>-MOD(G34,27)</f>
+        <v>-8</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="K34" t="s">
+        <v>42</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" ref="E35:F37" si="10">B11</f>
+        <v>27</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ref="G35:G37" si="11">E35+F35</f>
+        <v>31</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ref="H35:H37" si="12">-MOD(G35,27)</f>
+        <v>-4</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="K35" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="10"/>
+        <v>71</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="11"/>
+        <v>71</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="12"/>
+        <v>-17</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="K36" t="s">
+        <v>45</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="12"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" t="s">
+        <v>54</v>
+      </c>
+      <c r="J39" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" t="s">
+        <v>54</v>
+      </c>
+      <c r="L39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40">
+        <f>VLOOKUP(B40,$K$10:$L$36,2,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>37</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" ref="E40:F43" si="13">F34</f>
+        <v>6</v>
+      </c>
+      <c r="G40">
+        <f>E40+F40</f>
+        <v>43</v>
+      </c>
+      <c r="H40">
+        <f>-1*G40</f>
+        <v>-43</v>
+      </c>
+      <c r="I40">
+        <f>H40+C40</f>
+        <v>-20</v>
+      </c>
+      <c r="J40">
+        <f>MOD(I40,27)</f>
+        <v>7</v>
+      </c>
+      <c r="L40" t="str">
+        <f>VLOOKUP(J40,$J$10:$K$36,2,FALSE)</f>
+        <v>h</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
       </c>
       <c r="C41">
         <f t="shared" ref="C41:C50" si="14">VLOOKUP(B41,$K$10:$L$36,2,FALSE)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
         <v>10</v>
       </c>
-      <c r="E41" t="str">
-        <f>E35</f>
-        <v>27</v>
+      <c r="E41">
+        <v>75</v>
       </c>
       <c r="F41" t="str">
-        <f>F35</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>4</v>
       </c>
       <c r="G41">
         <f t="shared" ref="G41:G50" si="15">E41+F41</f>
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="H41">
         <f t="shared" ref="H41:H50" si="16">-1*G41</f>
-        <v>-27</v>
+        <v>-79</v>
       </c>
       <c r="I41">
         <f t="shared" ref="I41:I50" si="17">H41+C41</f>
-        <v>-23</v>
+        <v>-77</v>
       </c>
       <c r="J41">
         <f t="shared" ref="J41:J50" si="18">MOD(I41,27)</f>
@@ -1616,530 +3240,562 @@
       <c r="A42">
         <v>3</v>
       </c>
-      <c r="B42" t="str">
-        <f t="shared" si="13"/>
-        <v>q</v>
+      <c r="B42" t="s">
+        <v>29</v>
       </c>
       <c r="C42">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
       </c>
-      <c r="E42" t="str">
-        <f>E36</f>
-        <v>71</v>
+      <c r="E42">
+        <v>52</v>
       </c>
       <c r="F42" t="str">
-        <f>F36</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G42">
         <f t="shared" si="15"/>
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="H42">
         <f t="shared" si="16"/>
-        <v>-73</v>
+        <v>-52</v>
       </c>
       <c r="I42">
         <f t="shared" si="17"/>
-        <v>-57</v>
+        <v>-43</v>
       </c>
       <c r="J42">
         <f t="shared" si="18"/>
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L42" t="str">
         <f t="shared" si="19"/>
-        <v>y</v>
+        <v>l</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4</v>
       </c>
-      <c r="B43" t="str">
-        <f t="shared" si="13"/>
-        <v>t</v>
+      <c r="B43" t="s">
+        <v>29</v>
       </c>
       <c r="C43">
         <f t="shared" si="14"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
-      <c r="E43" t="str">
-        <f>E37</f>
-        <v>15</v>
+      <c r="E43">
+        <v>25</v>
       </c>
       <c r="F43" t="str">
-        <f>F37</f>
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G43">
         <f t="shared" si="15"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H43">
         <f t="shared" si="16"/>
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="I43">
         <f t="shared" si="17"/>
-        <v>-1</v>
+        <v>-16</v>
       </c>
       <c r="J43">
         <f t="shared" si="18"/>
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="L43" t="str">
         <f t="shared" si="19"/>
-        <v>/</v>
+        <v>l</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>5</v>
       </c>
-      <c r="B44" t="str">
-        <f t="shared" si="13"/>
-        <v>a</v>
+      <c r="B44" t="s">
+        <v>24</v>
       </c>
       <c r="C44">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
       </c>
-      <c r="E44" t="str">
-        <f>E34</f>
-        <v>02</v>
+      <c r="E44">
+        <v>37</v>
       </c>
       <c r="F44" t="str">
-        <f>F34</f>
-        <v>1</v>
+        <f t="shared" ref="E44:F47" si="20">F34</f>
+        <v>6</v>
       </c>
       <c r="G44">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="H44">
         <f t="shared" si="16"/>
-        <v>-3</v>
+        <v>-43</v>
       </c>
       <c r="I44">
         <f t="shared" si="17"/>
-        <v>-3</v>
+        <v>-40</v>
       </c>
       <c r="J44">
         <f t="shared" si="18"/>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="L44" t="str">
         <f t="shared" si="19"/>
-        <v>y</v>
+        <v>o</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>6</v>
       </c>
-      <c r="B45" t="str">
-        <f t="shared" si="13"/>
-        <v>o</v>
+      <c r="B45" t="s">
+        <v>42</v>
       </c>
       <c r="C45">
         <f t="shared" si="14"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
       </c>
-      <c r="E45" t="str">
-        <f>E35</f>
-        <v>27</v>
+      <c r="E45">
+        <v>75</v>
       </c>
       <c r="F45" t="str">
-        <f>F35</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>4</v>
       </c>
       <c r="G45">
         <f t="shared" si="15"/>
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="H45">
         <f t="shared" si="16"/>
-        <v>-27</v>
+        <v>-79</v>
       </c>
       <c r="I45">
         <f t="shared" si="17"/>
-        <v>-13</v>
+        <v>-55</v>
       </c>
       <c r="J45">
         <f t="shared" si="18"/>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L45" t="str">
         <f t="shared" si="19"/>
-        <v>o</v>
+        <v>/</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>7</v>
       </c>
-      <c r="B46" t="str">
-        <f t="shared" si="13"/>
-        <v>m</v>
+      <c r="B46" t="s">
+        <v>39</v>
       </c>
       <c r="C46">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
       </c>
-      <c r="E46" t="str">
-        <f>E36</f>
-        <v>71</v>
+      <c r="E46">
+        <v>52</v>
       </c>
       <c r="F46" t="str">
-        <f>F36</f>
-        <v>2</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="G46">
         <f t="shared" si="15"/>
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="H46">
         <f t="shared" si="16"/>
-        <v>-73</v>
+        <v>-52</v>
       </c>
       <c r="I46">
         <f t="shared" si="17"/>
-        <v>-61</v>
+        <v>-32</v>
       </c>
       <c r="J46">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L46" t="str">
         <f t="shared" si="19"/>
-        <v>u</v>
+        <v>w</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>8</v>
       </c>
-      <c r="B47" t="str">
-        <f t="shared" si="13"/>
-        <v>t</v>
-      </c>
-      <c r="C47">
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="4">
         <f t="shared" si="14"/>
-        <v>19</v>
-      </c>
-      <c r="D47" t="s">
         <v>12</v>
       </c>
-      <c r="E47" t="str">
-        <f>E37</f>
-        <v>15</v>
-      </c>
-      <c r="F47" t="str">
-        <f>F37</f>
-        <v>5</v>
-      </c>
-      <c r="G47">
+      <c r="D47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="4">
         <f t="shared" si="15"/>
-        <v>20</v>
-      </c>
-      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
         <f t="shared" si="16"/>
-        <v>-20</v>
-      </c>
-      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
         <f t="shared" si="17"/>
-        <v>-1</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="J47" s="4">
+        <f>VLOOKUP(L47,$K$10:$L$36,2,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="L47" t="str">
-        <f t="shared" si="19"/>
-        <v>/</v>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>9</v>
       </c>
-      <c r="B48" t="str">
-        <f t="shared" si="13"/>
-        <v>h</v>
-      </c>
-      <c r="C48">
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="4">
         <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="4" t="str">
-        <f>E34</f>
-        <v>02</v>
-      </c>
-      <c r="F48" t="str">
-        <f>F34</f>
-        <v>1</v>
-      </c>
-      <c r="G48">
+      <c r="E48" s="4"/>
+      <c r="F48" s="4" t="str">
+        <f t="shared" ref="E48:F50" si="21">F34</f>
+        <v>6</v>
+      </c>
+      <c r="G48" s="4">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="H48">
+        <v>6</v>
+      </c>
+      <c r="H48" s="4">
         <f t="shared" si="16"/>
-        <v>-3</v>
-      </c>
-      <c r="I48">
+        <v>-6</v>
+      </c>
+      <c r="I48" s="4">
         <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
+        <f t="shared" ref="J48:J50" si="22">VLOOKUP(L48,$K$10:$L$36,2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J48">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="L48" t="str">
-        <f t="shared" si="19"/>
-        <v>e</v>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>10</v>
       </c>
-      <c r="B49" t="str">
-        <f t="shared" si="13"/>
-        <v>n</v>
-      </c>
-      <c r="C49">
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="4">
         <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="G49" s="4">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="H49" s="4">
+        <f t="shared" si="16"/>
+        <v>-4</v>
+      </c>
+      <c r="I49" s="4">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="J49" s="4">
+        <f t="shared" si="22"/>
         <v>13</v>
       </c>
-      <c r="D49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" t="str">
-        <f>E35</f>
-        <v>27</v>
-      </c>
-      <c r="F49" t="str">
-        <f>F35</f>
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="15"/>
-        <v>27</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="16"/>
-        <v>-27</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="17"/>
-        <v>-14</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="L49" t="str">
-        <f t="shared" si="19"/>
-        <v>n</v>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>11</v>
       </c>
-      <c r="B50" t="str">
-        <f t="shared" si="13"/>
-        <v>w</v>
-      </c>
-      <c r="C50">
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="4">
         <f t="shared" si="14"/>
-        <v>22</v>
-      </c>
-      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E50" t="str">
-        <f>E36</f>
-        <v>71</v>
-      </c>
-      <c r="F50" t="str">
-        <f>F36</f>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="4">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="J50" s="4">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E55" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0</v>
+      </c>
+      <c r="I55" s="5">
+        <v>1</v>
+      </c>
+      <c r="J55" s="5">
         <v>2</v>
       </c>
-      <c r="G50">
-        <f t="shared" si="15"/>
+      <c r="K55" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="8">
+        <f>C47</f>
+        <v>12</v>
+      </c>
+      <c r="F56" s="8">
+        <f>F47*1</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="8">
+        <f>J47</f>
+        <v>26</v>
+      </c>
+      <c r="H56" s="8">
+        <f>($E56-$F56-$G56) + 27*H$55</f>
+        <v>-14</v>
+      </c>
+      <c r="I56" s="8">
+        <f>($E56-$F56-$G56) + 27*I$55</f>
+        <v>13</v>
+      </c>
+      <c r="J56" s="8">
+        <f>($E56-$F56-$G56) + 27*J$55</f>
+        <v>40</v>
+      </c>
+      <c r="K56" s="8">
+        <f>($E56-$F56-$G56) + 27*K$55</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="8">
+        <f t="shared" ref="E57:E59" si="23">C48</f>
+        <v>6</v>
+      </c>
+      <c r="F57" s="8">
+        <f>F48*1</f>
+        <v>6</v>
+      </c>
+      <c r="G57" s="8">
+        <f>J48</f>
+        <v>4</v>
+      </c>
+      <c r="H57" s="8">
+        <f>($E57-$F57-$G57) + 27*H$55</f>
+        <v>-4</v>
+      </c>
+      <c r="I57" s="8">
+        <f>($E57-$F57-$G57) + 27*I$55</f>
+        <v>23</v>
+      </c>
+      <c r="J57" s="8">
+        <f>($E57-$F57-$G57) + 27*J$55</f>
+        <v>50</v>
+      </c>
+      <c r="K57" s="8">
+        <f>($E57-$F57-$G57) + 27*K$55</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="8">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="F58" s="8">
+        <f>F49*1</f>
+        <v>4</v>
+      </c>
+      <c r="G58" s="8">
+        <f>J49</f>
+        <v>13</v>
+      </c>
+      <c r="H58" s="8">
+        <f>($E58-$F58-$G58) + 27*H$55</f>
+        <v>-8</v>
+      </c>
+      <c r="I58" s="8">
+        <f>($E58-$F58-$G58) + 27*I$55</f>
+        <v>19</v>
+      </c>
+      <c r="J58" s="8">
+        <f>($E58-$F58-$G58) + 27*J$55</f>
+        <v>46</v>
+      </c>
+      <c r="K58" s="8">
+        <f>($E58-$F58-$G58) + 27*K$55</f>
         <v>73</v>
       </c>
-      <c r="H50">
-        <f t="shared" si="16"/>
-        <v>-73</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="17"/>
-        <v>-51</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="18"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="8">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="F59" s="8">
+        <f>F50*1</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="8">
+        <f>J50</f>
         <v>3</v>
       </c>
-      <c r="L50" t="str">
-        <f t="shared" si="19"/>
-        <v>d</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C53">
-        <v>7</v>
-      </c>
-      <c r="E53" t="s">
-        <v>60</v>
-      </c>
-      <c r="F53">
-        <v>-1</v>
-      </c>
-      <c r="H53" t="s">
-        <v>61</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C54">
-        <v>7</v>
-      </c>
-      <c r="E54" t="s">
-        <v>60</v>
-      </c>
-      <c r="F54">
-        <v>-1</v>
-      </c>
-      <c r="H54" t="s">
-        <v>61</v>
-      </c>
-      <c r="I54">
-        <f>J54*27</f>
-        <v>27</v>
-      </c>
-      <c r="J54">
-        <f>J53+1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C55">
-        <v>7</v>
-      </c>
-      <c r="E55" t="s">
-        <v>60</v>
-      </c>
-      <c r="F55">
-        <v>-1</v>
-      </c>
-      <c r="H55" t="s">
-        <v>61</v>
-      </c>
-      <c r="I55">
-        <f t="shared" ref="I55:I59" si="20">J55*27</f>
-        <v>54</v>
-      </c>
-      <c r="J55">
-        <f t="shared" ref="J55:J57" si="21">J54+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C56">
-        <v>7</v>
-      </c>
-      <c r="E56" t="s">
-        <v>60</v>
-      </c>
-      <c r="F56">
-        <v>-1</v>
-      </c>
-      <c r="H56" t="s">
-        <v>61</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="20"/>
-        <v>81</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C57">
-        <v>7</v>
-      </c>
-      <c r="E57" t="s">
-        <v>60</v>
-      </c>
-      <c r="F57">
-        <v>-1</v>
-      </c>
-      <c r="H57" t="s">
-        <v>61</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="20"/>
-        <v>108</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C60" t="s">
-        <v>44</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F60" s="3" t="s">
+      <c r="H59" s="8">
+        <f>($E59-$F59-$G59) + 27*H$55</f>
+        <v>-2</v>
+      </c>
+      <c r="I59" s="8">
+        <f>($E59-$F59-$G59) + 27*I$55</f>
+        <v>25</v>
+      </c>
+      <c r="J59" s="8">
+        <f>($E59-$F59-$G59) + 27*J$55</f>
+        <v>52</v>
+      </c>
+      <c r="K59" s="8">
+        <f>($E59-$F59-$G59) + 27*K$55</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B62" t="str">
+        <f>B40&amp;B41&amp;B42&amp;B43&amp;B44&amp;B45&amp;B46&amp;B47&amp;B48&amp;B49&amp;B50</f>
+        <v>xcjjdyumgjb</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H64">
+        <f>-14 - 27</f>
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="B65" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J60" t="s">
-        <v>61</v>
-      </c>
-      <c r="K60" t="s">
-        <v>65</v>
+      <c r="E65">
+        <v>37525</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H54:K54"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>